--- a/magnetoAutoproject/testdata/credentials.xlsx
+++ b/magnetoAutoproject/testdata/credentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prave\OneDrive\Desktop\workspace3\magnetoAutoproject\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prave\git\magrepo\magnetoAutoproject\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21603C5B-FB6B-47DC-9459-2EC35D0CAA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FBFE6F-A460-4A9A-8E3C-9083AF7FA262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>lastname</t>
   </si>
@@ -135,18 +135,6 @@
     <t>568974</t>
   </si>
   <si>
-    <t>C:\Users\Prave\OneDrive\Pictures\Screenshots\Screenshot 2025-03-12 221131.png</t>
-  </si>
-  <si>
-    <t>C:\Users\Prave\OneDrive\Pictures\Screenshots\Screenshot 2025-03-12 221220.png</t>
-  </si>
-  <si>
-    <t>red sports shoe</t>
-  </si>
-  <si>
-    <t>basketball shoe barbiestyle</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -180,12 +168,6 @@
     <t>Nike Magista Obra</t>
   </si>
   <si>
-    <t>mika</t>
-  </si>
-  <si>
-    <t>mikha</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -214,6 +196,63 @@
   </si>
   <si>
     <t>12121121212</t>
+  </si>
+  <si>
+    <t>C:\Users\Prave\OneDrive\Pictures\Screenshots\MOVEON_22G-1108_WHT-NAVY_2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Prave\OneDrive\Pictures\Screenshots\Screenshot 2025-03-17 143614.png</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>walkkaro</t>
+  </si>
+  <si>
+    <t>white blue shoe</t>
+  </si>
+  <si>
+    <t>offc shoe</t>
+  </si>
+  <si>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>ader</t>
+  </si>
+  <si>
+    <t>anu126@gamil.com</t>
+  </si>
+  <si>
+    <t>niriksh</t>
+  </si>
+  <si>
+    <t>nir587@gmail.com</t>
+  </si>
+  <si>
+    <t>568989</t>
+  </si>
+  <si>
+    <t>548785</t>
+  </si>
+  <si>
+    <t>nir588</t>
+  </si>
+  <si>
+    <t>anu123</t>
+  </si>
+  <si>
+    <t>12288656212</t>
+  </si>
+  <si>
+    <t>55121212155</t>
+  </si>
+  <si>
+    <t>9633332458</t>
+  </si>
+  <si>
+    <t>1548554233</t>
   </si>
 </sst>
 </file>
@@ -258,10 +297,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89FF0D6-CD25-4453-BDF4-697B9A680E7D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,10 +631,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -600,43 +642,46 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>35000</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>50000</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" t="s">
-        <v>36</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -690,10 +735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA2FCC9-2568-491E-AC5E-9E28044CFE6F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -753,7 +798,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -771,7 +816,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -782,10 +827,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -803,39 +848,103 @@
         <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -843,6 +952,8 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{78FF0DFF-665A-43FA-A338-48A5C6B65117}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{9C9E729A-9CB6-4BE8-AE31-951A8AC9A34B}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{54763E0F-B41D-4485-93EB-0F982625ACA1}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{4AD6BB73-199E-4052-8BA0-BC7C500BA305}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{485FDD1B-3FC7-4D54-AADA-CD41FD2D10D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -873,7 +984,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
